--- a/biology/Zoologie/Atelecrinidae/Atelecrinidae.xlsx
+++ b/biology/Zoologie/Atelecrinidae/Atelecrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Atelecrinidae sont une famille de comatules.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces comatules ont un centrodorsal conique, avec une cavité large et profonde, sans lèvre adorale. L'anneau adoral porte cinq dépressions interradiales. Les plaques basales sont en forme de cale, formant un anneau visible de l'extérieur, avec un petit canal central. Les dix bras se divisent au second primibrachial, avec une syzygie. Il n'y a pas de pinnules proximales. Le bout des bras forme un filament long et fin dépourvu de pinnules[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces comatules ont un centrodorsal conique, avec une cavité large et profonde, sans lèvre adorale. L'anneau adoral porte cinq dépressions interradiales. Les plaques basales sont en forme de cale, formant un anneau visible de l'extérieur, avec un petit canal central. Les dix bras se divisent au second primibrachial, avec une syzygie. Il n'y a pas de pinnules proximales. Le bout des bras forme un filament long et fin dépourvu de pinnules.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (17 juin 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (17 juin 2014) :
 genre Adelatelecrinus Messing, 2013
 Adelatelecrinus sulcatus (AH Clark, 1912)
 Adelatelecrinus vallatus Messing, 2013
